--- a/old_image/documentreference.xlsx
+++ b/old_image/documentreference.xlsx
@@ -454,7 +454,7 @@
     <t>DocumentReference.docStatus</t>
   </si>
   <si>
-    <t>preliminary | final | appended | amended | entered-in-error</t>
+    <t>preliminary | final | amended | entered-in-error</t>
   </si>
   <si>
     <t>The status of the underlying document.</t>
